--- a/documents/银豹测试用例.xlsx
+++ b/documents/银豹测试用例.xlsx
@@ -1411,8 +1411,8 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/documents/银豹测试用例.xlsx
+++ b/documents/银豹测试用例.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>ID(Case Name)</t>
   </si>
@@ -241,7 +241,36 @@
 （2）通过搜索商品名的方式选择所需要兑换的商品，也能够正确地扣除会员的积分</t>
   </si>
   <si>
+    <t>test_4_3_memberRelated</t>
+  </si>
+  <si>
     <t>会员下单功能</t>
+  </si>
+  <si>
+    <t>准备一组会员卡号的数据：
+@parameterized.expand([("5")])</t>
+  </si>
+  <si>
+    <t>（1）在“选择所属行业”界面，选择“餐饮行业”按钮
+（2）出现账号列表面板，点击账号列表中第一个账号
+（3）在收银页面，点击第三个分类，并获得这个分类名
+（4）在收银页面，在所选分类下，从当前屏幕所显示的菜品中随机选择两个菜品，同时获取其菜品名和菜品价格
+（5）在收银页面，获取左侧订单栏中的菜品名、菜品价格和菜品数量，判断是否添加正确
+（6）在收银页面，获取“收银”金额，获取实际应收款金额
+（7）在收银页面，点击“收银”按钮，进入收银详情页面
+（8）在收银详情页面，点击“储蓄卡”按钮，自动跳转到选择会员页面
+（9）在选择会员页面，点击键盘数字5，并点击确定按钮
+（10）在会员详情页，获取会员的余额
+（11）在会员详情页，点击“选择会员”按钮
+（12）在收银详情页，点击“确定”按钮，确认付款，并自动跳转到收银页面
+（13）在收银页面，判断左侧的订单栏是否为空
+（14）在收银页面，点击“点击选择会员”按钮，进入选择会员页面
+（15）在选择会员页面，点击键盘数字5，并点击确定按钮
+（16）在会员详情页，获取会员的余额，判断余额是否被正确扣除</t>
+  </si>
+  <si>
+    <t>（1）步骤4所选择的菜品能够成功添加到订单栏中，且订单栏中的菜品名、菜品价格和菜品数量，被正确添加
+（2）能够按照应收款金额正确扣除会员卡余额</t>
   </si>
   <si>
     <t>会员折扣券功能</t>
@@ -1411,8 +1440,8 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1565,23 +1594,35 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+    <row r="8" ht="409.5" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
